--- a/xls/PowerConfig.xlsx
+++ b/xls/PowerConfig.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Server\kbengine\fbgServer\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="14880" yWindow="0" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>shoot[.][funcInt]</t>
   </si>
@@ -42,55 +37,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>射门属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传球属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>def      防守</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trick    拦截</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steal    抢断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level[.!][funcInt]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力训练等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力训练:PowerConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>passBall[.][funcInt]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>keep[.][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>射门属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>传球属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>带盘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>def      防守</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>trick    拦截</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>steal    抢断</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>守门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>level[.!][funcInt]</t>
+    <t>exp[.][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>能力训练等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能力训练:PowerConfig</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>passBall[.][funcInt]</t>
+    <t>升级经验</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +138,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,14 +162,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -178,7 +207,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -220,7 +249,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,7 +284,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -483,15 +512,15 @@
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -509,39 +538,45 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -569,8 +604,11 @@
       <c r="I3" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -598,8 +636,11 @@
       <c r="I4" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J4" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -627,8 +668,11 @@
       <c r="I5" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J5" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -656,8 +700,11 @@
       <c r="I6" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J6" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -685,8 +732,11 @@
       <c r="I7" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J7" s="3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -714,8 +764,11 @@
       <c r="I8" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J8" s="3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -743,8 +796,11 @@
       <c r="I9" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J9" s="3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -772,8 +828,11 @@
       <c r="I10" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J10" s="3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -801,8 +860,11 @@
       <c r="I11" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J11" s="3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -830,8 +892,11 @@
       <c r="I12" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J12" s="3">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -859,8 +924,11 @@
       <c r="I13" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J13" s="3">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -888,8 +956,11 @@
       <c r="I14" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J14" s="3">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -917,8 +988,11 @@
       <c r="I15" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J15" s="3">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -946,8 +1020,11 @@
       <c r="I16" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J16" s="3">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -975,8 +1052,11 @@
       <c r="I17" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J17" s="3">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1004,8 +1084,11 @@
       <c r="I18" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J18" s="3">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1033,8 +1116,11 @@
       <c r="I19" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J19" s="3">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1062,8 +1148,11 @@
       <c r="I20" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J20" s="3">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1091,8 +1180,11 @@
       <c r="I21" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J21" s="3">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1120,8 +1212,11 @@
       <c r="I22" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J22" s="3">
+        <v>7021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1149,8 +1244,11 @@
       <c r="I23" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J23" s="3">
+        <v>8030</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1178,8 +1276,11 @@
       <c r="I24" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J24" s="3">
+        <v>9131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1207,8 +1308,11 @@
       <c r="I25" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J25" s="3">
+        <v>10328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1236,8 +1340,11 @@
       <c r="I26" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J26" s="3">
+        <v>11625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1265,8 +1372,11 @@
       <c r="I27" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J27" s="3">
+        <v>13026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1294,8 +1404,11 @@
       <c r="I28" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J28" s="3">
+        <v>14535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1323,8 +1436,11 @@
       <c r="I29" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J29" s="3">
+        <v>16156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1352,8 +1468,11 @@
       <c r="I30" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J30" s="3">
+        <v>17893</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1381,8 +1500,11 @@
       <c r="I31" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J31" s="3">
+        <v>19750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1409,6 +1531,9 @@
       </c>
       <c r="I32" s="1">
         <v>75</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1420,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1436,30 +1561,102 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
+      <c r="A3" s="4"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
+      <c r="A4" s="4"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
